--- a/Planning/Forrest West.xlsx
+++ b/Planning/Forrest West.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BIT5\1\The Class of writing\New folder\Prof-Practice-Text-Adventure-electric-Boogalo\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\Git\Prof-Practice-Text-Adventure-electric-Boogalo\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -507,7 +507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,12 +515,12 @@
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -529,11 +529,11 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="4"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -541,12 +541,12 @@
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="4"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -559,7 +559,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -585,7 +585,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -597,8 +597,9 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>

--- a/Planning/Forrest West.xlsx
+++ b/Planning/Forrest West.xlsx
@@ -473,7 +473,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -514,8 +514,8 @@
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -606,8 +606,8 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>

--- a/Planning/Forrest West.xlsx
+++ b/Planning/Forrest West.xlsx
@@ -473,7 +473,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="2"/>
     </row>
@@ -595,7 +595,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
